--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T15:13:20+00:00</t>
+    <t>2021-12-08T18:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Allergie</t>
+    <t>Allergie(n) und Unverträglichkeiten des Patienten.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1022,7 +1022,7 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>O@a</t>
+    <t>O@i</t>
   </si>
   <si>
     <t>AllergyIntolerance.patient</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
-    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
-ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
@@ -276,47 +272,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -367,10 +367,6 @@
   </si>
   <si>
     <t>AllergyIntolerance.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1798,40 +1794,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.39453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -2054,10 +2050,10 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>77</v>
@@ -2071,7 +2067,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2082,28 +2078,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2153,13 +2149,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2182,7 +2178,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2193,25 +2189,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2262,19 +2258,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2291,7 +2287,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2302,7 +2298,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -2314,7 +2310,7 @@
         <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -2377,7 +2373,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
@@ -2522,28 +2518,28 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2593,19 +2589,19 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>77</v>
@@ -2622,7 +2618,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2633,28 +2629,28 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2704,19 +2700,19 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
@@ -2733,7 +2729,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2744,28 +2740,28 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2815,19 +2811,19 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2844,7 +2840,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2858,25 +2854,25 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2926,7 +2922,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2938,7 +2934,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2955,7 +2951,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2975,19 +2971,19 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3013,31 +3009,31 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3049,7 +3045,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3066,7 +3062,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3086,19 +3082,19 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3124,31 +3120,31 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3160,7 +3156,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3173,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3188,28 +3184,28 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3259,19 +3255,19 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
@@ -3288,7 +3284,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3299,11 +3295,11 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3311,16 +3307,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3346,43 +3342,43 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
@@ -3399,18 +3395,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3422,16 +3418,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3481,22 +3477,22 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3510,11 +3506,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3533,16 +3529,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3592,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3607,7 +3603,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3621,7 +3617,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3650,7 +3646,7 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>107</v>
@@ -3703,7 +3699,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3718,7 +3714,7 @@
         <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3732,7 +3728,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3749,7 +3745,7 @@
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
@@ -3758,16 +3754,16 @@
         <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3816,7 +3812,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3831,7 +3827,7 @@
         <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -3845,7 +3841,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3865,22 +3861,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3929,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3941,16 +3937,16 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3958,7 +3954,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3969,28 +3965,28 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4016,49 +4012,49 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4069,7 +4065,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4080,28 +4076,28 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4127,49 +4123,49 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4180,39 +4176,39 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4238,52 +4234,52 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4291,11 +4287,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4311,19 +4307,19 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4349,14 +4345,14 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4385,16 +4381,16 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4402,39 +4398,39 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4460,52 +4456,52 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4513,39 +4509,39 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4571,52 +4567,52 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4624,7 +4620,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4635,7 +4631,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4647,7 +4643,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>98</v>
@@ -4710,7 +4706,7 @@
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4729,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4844,7 +4840,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4864,22 +4860,22 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4916,7 +4912,7 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -4926,7 +4922,7 @@
         <v>110</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4938,16 +4934,16 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4955,10 +4951,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>77</v>
@@ -4968,31 +4964,31 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5002,7 +4998,7 @@
         <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -5017,11 +5013,11 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5035,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5051,16 +5047,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5068,7 +5064,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5079,7 +5075,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5091,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>98</v>
@@ -5154,7 +5150,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
@@ -5177,7 +5173,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5288,7 +5284,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,31 +5295,31 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5372,28 +5368,28 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5401,7 +5397,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5412,28 +5408,28 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5483,28 +5479,28 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5512,7 +5508,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5523,29 +5519,29 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5594,28 +5590,28 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5619,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5634,29 +5630,29 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5705,28 +5701,28 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5745,31 +5741,31 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5818,28 +5814,28 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5847,7 +5843,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5858,31 +5854,31 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5931,65 +5927,65 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6040,28 +6036,28 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6069,7 +6065,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,7 +6076,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6092,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>98</v>
@@ -6155,7 +6151,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -6178,7 +6174,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6289,7 +6285,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6297,31 +6293,31 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6371,22 +6367,22 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6400,7 +6396,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6411,28 +6407,28 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6458,46 +6454,46 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6511,7 +6507,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6522,28 +6518,28 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6593,22 +6589,22 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6622,7 +6618,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6633,28 +6629,28 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6704,22 +6700,22 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6733,7 +6729,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6744,7 +6740,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6756,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6813,25 +6809,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6842,7 +6838,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,11 +6849,11 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6865,13 +6861,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6922,25 +6918,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6951,7 +6947,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6974,13 +6970,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7031,28 +7027,28 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7060,11 +7056,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7083,13 +7079,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7140,25 +7136,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7169,11 +7165,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7189,19 +7185,19 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7251,28 +7247,28 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7280,7 +7276,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7303,16 +7299,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7362,22 +7358,22 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7391,7 +7387,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7414,16 +7410,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7473,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7485,10 +7481,10 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7502,7 +7498,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7516,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7525,13 +7521,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7582,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7594,10 +7590,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7611,7 +7607,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7622,7 +7618,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7634,7 +7630,7 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>98</v>
@@ -7697,7 +7693,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -7720,7 +7716,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7831,11 +7827,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7848,25 +7844,25 @@
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>107</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -7915,7 +7911,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7930,7 +7926,7 @@
         <v>112</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7940,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7967,16 +7963,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8002,46 +7998,46 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8055,21 +8051,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8078,16 +8074,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8113,14 +8109,14 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8137,10 +8133,10 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8149,16 +8145,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8166,7 +8162,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8177,7 +8173,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8189,7 +8185,7 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>98</v>
@@ -8252,7 +8248,7 @@
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
@@ -8275,7 +8271,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8386,7 +8382,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8400,28 +8396,28 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8470,7 +8466,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8482,16 +8478,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8499,7 +8495,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8510,7 +8506,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8522,7 +8518,7 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>98</v>
@@ -8585,7 +8581,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8608,7 +8604,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8719,7 +8715,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8730,31 +8726,31 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8803,28 +8799,28 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8828,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8843,28 +8839,28 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8914,28 +8910,28 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8943,7 +8939,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8954,29 +8950,29 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9025,28 +9021,28 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9054,7 +9050,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9065,29 +9061,29 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9136,28 +9132,28 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9165,7 +9161,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9176,31 +9172,31 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9249,28 +9245,28 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9278,7 +9274,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9289,31 +9285,31 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9362,28 +9358,28 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9391,11 +9387,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9414,16 +9410,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9473,22 +9469,22 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9502,7 +9498,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9525,13 +9521,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9582,28 +9578,28 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9611,7 +9607,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9634,16 +9630,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9669,14 +9665,14 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9693,22 +9689,22 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9722,7 +9718,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9745,16 +9741,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9780,46 +9776,46 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9833,7 +9829,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9856,16 +9852,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9915,7 +9911,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9927,10 +9923,10 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-mp4p-allergyintolerance.xlsx
+++ b/StructureDefinition-mp4p-allergyintolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
